--- a/project2/FLOPS.xlsx
+++ b/project2/FLOPS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Gis</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>runtime minutes</t>
+  </si>
+  <si>
+    <t>collins</t>
+  </si>
+  <si>
+    <t>cd</t>
   </si>
 </sst>
 </file>
@@ -423,172 +429,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
         <v>1000</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>32</v>
       </c>
-      <c r="C2">
-        <f>B2*60</f>
+      <c r="D2">
+        <f>C2*60</f>
         <v>1920</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>115</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4000</v>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>81</v>
+        <v>3000</v>
       </c>
       <c r="C3">
-        <f>B3*60</f>
-        <v>4860</v>
-      </c>
-      <c r="L3">
-        <f>(D2^2)*F2*E2 +(D2^2)*E2</f>
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <f>C3*60</f>
+        <v>3000</v>
+      </c>
+      <c r="M3">
+        <f>(E2^2)*G2*F2 +(E2^2)*F2</f>
         <v>154560</v>
       </c>
-      <c r="M3">
-        <f>L3*A2</f>
+      <c r="N3">
+        <f>M3*B2</f>
         <v>154560000</v>
-      </c>
-      <c r="N3">
-        <f>M3/1000</f>
-        <v>154560</v>
       </c>
       <c r="O3">
         <f>N3/1000</f>
+        <v>154560</v>
+      </c>
+      <c r="P3">
+        <f>O3/1000</f>
         <v>154.56</v>
       </c>
-      <c r="P3">
-        <f>O3/C2</f>
+      <c r="Q3">
+        <f>P3/D2</f>
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>4.7699999999999996</v>
       </c>
-      <c r="R3">
-        <f>Q3/P3</f>
+      <c r="S3">
+        <f>R3/Q3</f>
         <v>59.254658385093158</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L4">
-        <f>(D2^2)*F2*E2 +(D2^2)*E2</f>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <f>(E2^2)*G2*F2 +(E2^2)*F2</f>
         <v>154560</v>
       </c>
-      <c r="M4">
-        <f>L4*A3</f>
-        <v>618240000</v>
-      </c>
       <c r="N4">
-        <f>M4/1000</f>
-        <v>618240</v>
+        <f>M4*B3</f>
+        <v>463680000</v>
       </c>
       <c r="O4">
         <f>N4/1000</f>
-        <v>618.24</v>
+        <v>463680</v>
       </c>
       <c r="P4">
-        <f>O4/C3</f>
-        <v>0.12720987654320987</v>
+        <f>O4/1000</f>
+        <v>463.68</v>
       </c>
       <c r="Q4">
+        <f>P4/D3</f>
+        <v>0.15456</v>
+      </c>
+      <c r="R4">
         <v>4.7699999999999996</v>
       </c>
-      <c r="R4">
-        <f>Q4/P4</f>
-        <v>37.497088509316768</v>
+      <c r="S4">
+        <f>R4/Q4</f>
+        <v>30.861801242236023</v>
       </c>
     </row>
   </sheetData>
